--- a/GuiasInfo.xlsx
+++ b/GuiasInfo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,75 +433,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>CODIGO</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>VENDEDOR</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MONEDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ESTADO</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CLIENTE</t>
+          <t>INFORMACION</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>T001-0001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>USR-0001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2023-07-25</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>SOLES</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EMITIDA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>SEGOVIA RAZO ALEXANDER FRANCISCO</t>
+          <t>INGRESAR AMBAS FECHAS</t>
         </is>
       </c>
     </row>
